--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H2">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I2">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J2">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>6882.396562495125</v>
+        <v>11522.44696370571</v>
       </c>
       <c r="R2">
-        <v>27529.5862499805</v>
+        <v>46089.78785482285</v>
       </c>
       <c r="S2">
-        <v>0.05328305286615595</v>
+        <v>0.08506591105710193</v>
       </c>
       <c r="T2">
-        <v>0.02885903524151957</v>
+        <v>0.05004311154434991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H3">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I3">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J3">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>10146.85183079288</v>
+        <v>18768.52633408286</v>
       </c>
       <c r="R3">
-        <v>60881.11098475728</v>
+        <v>112611.1580044972</v>
       </c>
       <c r="S3">
-        <v>0.07855624673989733</v>
+        <v>0.1385610015682381</v>
       </c>
       <c r="T3">
-        <v>0.0638211599512586</v>
+        <v>0.1222703120029174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H4">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I4">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J4">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>4798.209660940073</v>
+        <v>10281.16738358425</v>
       </c>
       <c r="R4">
-        <v>28789.25796564044</v>
+        <v>61687.00430150553</v>
       </c>
       <c r="S4">
-        <v>0.03714741757543868</v>
+        <v>0.07590200874605584</v>
       </c>
       <c r="T4">
-        <v>0.03017953857581874</v>
+        <v>0.06697816980240251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H5">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I5">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J5">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>1613.079851306737</v>
+        <v>4402.737400852184</v>
       </c>
       <c r="R5">
-        <v>6452.319405226949</v>
+        <v>17610.94960340874</v>
       </c>
       <c r="S5">
-        <v>0.01248835608556504</v>
+        <v>0.03250376151249547</v>
       </c>
       <c r="T5">
-        <v>0.006763912519939055</v>
+        <v>0.01912151815888838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H6">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I6">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J6">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>3719.299302597612</v>
+        <v>6997.432978199503</v>
       </c>
       <c r="R6">
-        <v>22315.79581558567</v>
+        <v>41984.59786919702</v>
       </c>
       <c r="S6">
-        <v>0.0287945658995156</v>
+        <v>0.05165942730971058</v>
       </c>
       <c r="T6">
-        <v>0.02339346229313556</v>
+        <v>0.04558580136951201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H7">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I7">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J7">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>3531.15540900004</v>
+        <v>7748.362267603518</v>
       </c>
       <c r="R7">
-        <v>21186.93245400023</v>
+        <v>46490.17360562111</v>
       </c>
       <c r="S7">
-        <v>0.02733796848639451</v>
+        <v>0.05720325704863879</v>
       </c>
       <c r="T7">
-        <v>0.02221008426343933</v>
+        <v>0.05047784014086848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J8">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>14048.16349809451</v>
+        <v>12715.27398009104</v>
       </c>
       <c r="R8">
-        <v>84288.98098856705</v>
+        <v>76291.64388054622</v>
       </c>
       <c r="S8">
-        <v>0.1087599401668308</v>
+        <v>0.09387210623438996</v>
       </c>
       <c r="T8">
-        <v>0.08835943449104881</v>
+        <v>0.08283551351205648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J9">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>20711.48214369098</v>
@@ -1013,10 +1013,10 @@
         <v>186403.3392932188</v>
       </c>
       <c r="S9">
-        <v>0.1603469064849477</v>
+        <v>0.1529051167209147</v>
       </c>
       <c r="T9">
-        <v>0.1954050630820412</v>
+        <v>0.2023919730303932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J10">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>9793.977025727441</v>
+        <v>11345.49462707237</v>
       </c>
       <c r="R10">
-        <v>88145.79323154697</v>
+        <v>102109.4516436513</v>
       </c>
       <c r="S10">
-        <v>0.07582431365195279</v>
+        <v>0.0837595382200811</v>
       </c>
       <c r="T10">
-        <v>0.09240249853964709</v>
+        <v>0.1108678281278083</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J11">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>3292.575381390642</v>
+        <v>4858.5176821005</v>
       </c>
       <c r="R11">
-        <v>19755.45228834385</v>
+        <v>29151.106092603</v>
       </c>
       <c r="S11">
-        <v>0.02549089790444132</v>
+        <v>0.03586861665032991</v>
       </c>
       <c r="T11">
-        <v>0.02070947556655987</v>
+        <v>0.03165152459430684</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J12">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>7591.73410407171</v>
+        <v>7721.821393961636</v>
       </c>
       <c r="R12">
-        <v>68325.60693664537</v>
+        <v>69496.39254565473</v>
       </c>
       <c r="S12">
-        <v>0.05877469656680198</v>
+        <v>0.05700731571745197</v>
       </c>
       <c r="T12">
-        <v>0.0716251628548998</v>
+        <v>0.07545740360200437</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J13">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>7207.69982844889</v>
+        <v>8550.48840232566</v>
       </c>
       <c r="R13">
-        <v>64869.29845604001</v>
+        <v>76954.39562093093</v>
       </c>
       <c r="S13">
-        <v>0.0558015289463927</v>
+        <v>0.06312505392457826</v>
       </c>
       <c r="T13">
-        <v>0.0680019435539768</v>
+        <v>0.08355511238230412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H14">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I14">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>8.581105517702667</v>
+        <v>0.7339986485733334</v>
       </c>
       <c r="R14">
-        <v>51.486633106216</v>
+        <v>4.40399189144</v>
       </c>
       <c r="S14">
-        <v>6.643434373448132E-05</v>
+        <v>5.418837157788188E-06</v>
       </c>
       <c r="T14">
-        <v>5.397300728704299E-05</v>
+        <v>4.781741633481675E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H15">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I15">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>12.65129166009022</v>
+        <v>1.195585712680889</v>
       </c>
       <c r="R15">
-        <v>113.861624940812</v>
+        <v>10.760271414128</v>
       </c>
       <c r="S15">
-        <v>9.794545202803005E-05</v>
+        <v>8.826561598973558E-06</v>
       </c>
       <c r="T15">
-        <v>0.0001193601900510185</v>
+        <v>1.168322718952027E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H16">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I16">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>5.982500866189556</v>
+        <v>0.6549271165297779</v>
       </c>
       <c r="R16">
-        <v>53.842507795706</v>
+        <v>5.894344048768001</v>
       </c>
       <c r="S16">
-        <v>4.631612070453513E-05</v>
+        <v>4.835081647074805E-06</v>
       </c>
       <c r="T16">
-        <v>5.644265103944934E-05</v>
+        <v>6.399927846107588E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H17">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I17">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J17">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>2.011219244176333</v>
+        <v>0.2804615471373334</v>
       </c>
       <c r="R17">
-        <v>12.067315465058</v>
+        <v>1.682769282824</v>
       </c>
       <c r="S17">
-        <v>1.557072457824588E-05</v>
+        <v>2.070542576491822E-06</v>
       </c>
       <c r="T17">
-        <v>1.265006597318148E-05</v>
+        <v>1.827107800734979E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H18">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I18">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J18">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>4.637294506019779</v>
+        <v>0.4457478837315557</v>
       </c>
       <c r="R18">
-        <v>41.73565055417801</v>
+        <v>4.011730953584001</v>
       </c>
       <c r="S18">
-        <v>3.590162323203988E-05</v>
+        <v>3.290789703856897E-06</v>
       </c>
       <c r="T18">
-        <v>4.375113375238693E-05</v>
+        <v>4.355834750823611E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H19">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I19">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J19">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>4.402713050445111</v>
+        <v>0.4935833031813334</v>
       </c>
       <c r="R19">
-        <v>39.624417454006</v>
+        <v>4.442249728632</v>
       </c>
       <c r="S19">
-        <v>3.408550932675899E-05</v>
+        <v>3.643940692454312E-06</v>
       </c>
       <c r="T19">
-        <v>4.153794573395205E-05</v>
+        <v>4.823281013529928E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H20">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I20">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J20">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>1459.789209906324</v>
+        <v>1869.1317973855</v>
       </c>
       <c r="R20">
-        <v>5839.156839625296</v>
+        <v>7476.527189542</v>
       </c>
       <c r="S20">
-        <v>0.01130159021477306</v>
+        <v>0.01379910011573275</v>
       </c>
       <c r="T20">
-        <v>0.006121139325718193</v>
+        <v>0.008117821789267886</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H21">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I21">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J21">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>2152.195776951812</v>
+        <v>3044.565921770066</v>
       </c>
       <c r="R21">
-        <v>12913.17466171087</v>
+        <v>18267.3955306204</v>
       </c>
       <c r="S21">
-        <v>0.01666215544546692</v>
+        <v>0.0224768900845939</v>
       </c>
       <c r="T21">
-        <v>0.01353677310142922</v>
+        <v>0.01983427033865025</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H22">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I22">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J22">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>1017.723205326206</v>
+        <v>1667.775684403733</v>
       </c>
       <c r="R22">
-        <v>6106.339231957236</v>
+        <v>10006.6541064224</v>
       </c>
       <c r="S22">
-        <v>0.00787914483858955</v>
+        <v>0.01231256333655177</v>
       </c>
       <c r="T22">
-        <v>0.006401224395148774</v>
+        <v>0.01086496881284784</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H23">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I23">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J23">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>342.141947252337</v>
+        <v>714.19694943205</v>
       </c>
       <c r="R23">
-        <v>1368.567789009348</v>
+        <v>2856.7877977282</v>
       </c>
       <c r="S23">
-        <v>0.002648840022169055</v>
+        <v>0.005272648628282457</v>
       </c>
       <c r="T23">
-        <v>0.001434658178106737</v>
+        <v>0.00310182704399865</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H24">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I24">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J24">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>788.8811609506781</v>
+        <v>1135.099560086867</v>
       </c>
       <c r="R24">
-        <v>4733.286965704068</v>
+        <v>6810.597360521201</v>
       </c>
       <c r="S24">
-        <v>0.006107465070104966</v>
+        <v>0.008380014984963836</v>
       </c>
       <c r="T24">
-        <v>0.004961865177017534</v>
+        <v>0.007394772231752714</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H25">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I25">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J25">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>748.9749417595059</v>
+        <v>1256.9127319621</v>
       </c>
       <c r="R25">
-        <v>4493.849650557036</v>
+        <v>7541.4763917726</v>
       </c>
       <c r="S25">
-        <v>0.005798513796003904</v>
+        <v>0.009279316016850689</v>
       </c>
       <c r="T25">
-        <v>0.004710865040175015</v>
+        <v>0.008188341970054578</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H26">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I26">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J26">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>6531.39250831834</v>
+        <v>24.76369039737</v>
       </c>
       <c r="R26">
-        <v>39188.35504991005</v>
+        <v>148.58214238422</v>
       </c>
       <c r="S26">
-        <v>0.05056560300619666</v>
+        <v>0.0001828210528044647</v>
       </c>
       <c r="T26">
-        <v>0.04108082515927156</v>
+        <v>0.0001613266858214438</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H27">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I27">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J27">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>9629.359690170249</v>
+        <v>40.336742431196</v>
       </c>
       <c r="R27">
-        <v>86664.23721153225</v>
+        <v>363.030681880764</v>
       </c>
       <c r="S27">
-        <v>0.07454985727421688</v>
+        <v>0.0002977910642412555</v>
       </c>
       <c r="T27">
-        <v>0.09084939574305419</v>
+        <v>0.000394169419147792</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H28">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I28">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J28">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>4553.499692764453</v>
+        <v>22.095970310176</v>
       </c>
       <c r="R28">
-        <v>40981.49723488007</v>
+        <v>198.863732791584</v>
       </c>
       <c r="S28">
-        <v>0.03525288940450605</v>
+        <v>0.000163126274396953</v>
       </c>
       <c r="T28">
-        <v>0.042960561129119</v>
+        <v>0.0002159211492481122</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H29">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I29">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J29">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>1530.812350098658</v>
+        <v>9.462228486627001</v>
       </c>
       <c r="R29">
-        <v>9184.874100591947</v>
+        <v>56.773370919762</v>
       </c>
       <c r="S29">
-        <v>0.01185144660552666</v>
+        <v>6.985608954250478E-05</v>
       </c>
       <c r="T29">
-        <v>0.009628426775142368</v>
+        <v>6.164307248789183E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H30">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I30">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J30">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>3529.614049495115</v>
+        <v>15.038668816988</v>
       </c>
       <c r="R30">
-        <v>31766.52644545603</v>
+        <v>135.348019352892</v>
       </c>
       <c r="S30">
-        <v>0.02732603538442328</v>
+        <v>0.0001110248602603841</v>
       </c>
       <c r="T30">
-        <v>0.03330058424654778</v>
+        <v>0.0001469574138878327</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H31">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I31">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J31">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>3351.065544483725</v>
+        <v>16.652543065374</v>
       </c>
       <c r="R31">
-        <v>30159.58990035352</v>
+        <v>149.872887588366</v>
       </c>
       <c r="S31">
-        <v>0.0259437248265664</v>
+        <v>0.0001229394894795928</v>
       </c>
       <c r="T31">
-        <v>0.03161604609312633</v>
+        <v>0.0001627281439151515</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H32">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I32">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J32">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N32">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O32">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P32">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q32">
-        <v>35.065179113624</v>
+        <v>1.847884844933333</v>
       </c>
       <c r="R32">
-        <v>210.391074681744</v>
+        <v>11.0873090696</v>
       </c>
       <c r="S32">
-        <v>0.0002714722663111261</v>
+        <v>1.364224182224496E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002205512056595449</v>
+        <v>1.203831630217878E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H33">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I33">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J33">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P33">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q33">
-        <v>51.69727923337867</v>
+        <v>3.009957475502222</v>
       </c>
       <c r="R33">
-        <v>465.275513100408</v>
+        <v>27.08961727952</v>
       </c>
       <c r="S33">
-        <v>0.000400236870603966</v>
+        <v>2.222138888581918E-05</v>
       </c>
       <c r="T33">
-        <v>0.0004877444327587847</v>
+        <v>2.941321282456093E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H34">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I34">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J34">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N34">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O34">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P34">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q34">
-        <v>24.44643804782267</v>
+        <v>1.648817604124444</v>
       </c>
       <c r="R34">
-        <v>220.017942430404</v>
+        <v>14.83935843712</v>
       </c>
       <c r="S34">
-        <v>0.0001892626847440926</v>
+        <v>1.217260292918942E-05</v>
       </c>
       <c r="T34">
-        <v>0.000230642970682865</v>
+        <v>1.611219543588503E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H35">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I35">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J35">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N35">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O35">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P35">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q35">
-        <v>8.218493862862001</v>
+        <v>0.7060784696933333</v>
       </c>
       <c r="R35">
-        <v>49.31096317717201</v>
+        <v>4.23647081816</v>
       </c>
       <c r="S35">
-        <v>6.362702860822901E-05</v>
+        <v>5.212712932544574E-06</v>
       </c>
       <c r="T35">
-        <v>5.169227067930558E-05</v>
+        <v>4.599851541416453E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H36">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I36">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J36">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N36">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O36">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P36">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q36">
-        <v>18.94948874836134</v>
+        <v>1.122196560728889</v>
       </c>
       <c r="R36">
-        <v>170.545398735252</v>
+        <v>10.09976904656</v>
       </c>
       <c r="S36">
-        <v>0.0001467056717230946</v>
+        <v>8.284756972563093E-06</v>
       </c>
       <c r="T36">
-        <v>0.0001787813164966521</v>
+        <v>1.096607063068282E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H37">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I37">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J37">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N37">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O37">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P37">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q37">
-        <v>17.99091287028933</v>
+        <v>1.242625047653333</v>
       </c>
       <c r="R37">
-        <v>161.918215832604</v>
+        <v>11.18362542888</v>
       </c>
       <c r="S37">
-        <v>0.0001392844415275164</v>
+        <v>9.173835393989082E-06</v>
       </c>
       <c r="T37">
-        <v>0.0001697375127445078</v>
+        <v>1.214289413894767E-05</v>
       </c>
     </row>
   </sheetData>
